--- a/data/Output/xlsx/spea2/results_summer_spea2.xlsx
+++ b/data/Output/xlsx/spea2/results_summer_spea2.xlsx
@@ -160,7 +160,7 @@
     <t>Li-ion</t>
   </si>
   <si>
-    <t>20-90</t>
+    <t>10-90</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5648490922572974</v>
+        <v>0.5954205619178783</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4882044510839464</v>
+        <v>0.5009425634425217</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-3.387119110725449</v>
+        <v>-3.475495002646352</v>
       </c>
       <c r="T2">
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>3.387119110725449</v>
+        <v>3.475495002646352</v>
       </c>
       <c r="V2">
         <v>3.508510869565217</v>
@@ -674,7 +674,7 @@
         <v>106.1251601262854</v>
       </c>
       <c r="C3">
-        <v>43.06440444637275</v>
+        <v>42.62252498676824</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>-0.4217460131395666</v>
+        <v>-0.3789800393053482</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01145639801622751</v>
+        <v>0.02927555378048516</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-0.1079517618875183</v>
+        <v>-0.2758587477809055</v>
       </c>
       <c r="T3">
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>0.1079517618875183</v>
+        <v>0.2758587477809055</v>
       </c>
       <c r="V3">
         <v>3.527606521739131</v>
@@ -745,7 +745,7 @@
         <v>119.3189063050656</v>
       </c>
       <c r="C4">
-        <v>42.52464563693516</v>
+        <v>41.24323124786371</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>-0.4761614643548696</v>
+        <v>-0.4711873674734997</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0101414725416201</v>
+        <v>0.01221401290885758</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-0.08499468236568603</v>
+        <v>-0.1023644390238519</v>
       </c>
       <c r="T4">
         <v>-0</v>
       </c>
       <c r="U4">
-        <v>0.08499468236568603</v>
+        <v>0.1023644390238519</v>
       </c>
       <c r="V4">
         <v>3.495541304347826</v>
@@ -816,7 +816,7 @@
         <v>133.2452038018512</v>
       </c>
       <c r="C5">
-        <v>42.09967222510673</v>
+        <v>40.73140905274445</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-0.2250735670587009</v>
+        <v>0.1723615263356119</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1333268173710477</v>
+        <v>0.2989247729520113</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-1.000612506618384</v>
+        <v>-2.243418632887845</v>
       </c>
       <c r="T5">
         <v>-0</v>
       </c>
       <c r="U5">
-        <v>1.000612506618384</v>
+        <v>2.243418632887845</v>
       </c>
       <c r="V5">
         <v>3.408865217391304</v>
@@ -887,7 +887,7 @@
         <v>150.7319573651624</v>
       </c>
       <c r="C6">
-        <v>37.09660969201482</v>
+        <v>29.51431588830522</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6154080854701953</v>
+        <v>0.6056518687381489</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5155194230127546</v>
+        <v>0.5114543327077351</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-3.411262438129351</v>
+        <v>-3.384293437155183</v>
       </c>
       <c r="T6">
         <v>-0.008844565217391305</v>
       </c>
       <c r="U6">
-        <v>3.420107003346743</v>
+        <v>3.393138002372574</v>
       </c>
       <c r="V6">
         <v>3.437882608695652</v>
@@ -958,19 +958,19 @@
         <v>74.54327405841806</v>
       </c>
       <c r="C7">
-        <v>20.04029750136806</v>
+        <v>12.59284870252931</v>
       </c>
       <c r="D7">
-        <v>9.570618968680103</v>
+        <v>9.382159802838569</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.4785309484340051</v>
+        <v>0.4691079901419284</v>
       </c>
       <c r="G7">
-        <v>-1.158657337139357</v>
+        <v>-1.153358718930328</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01903586238055894</v>
+        <v>0.009403014306603079</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.002827966137762483</v>
+        <v>0.1320528787221869</v>
       </c>
       <c r="P7">
-        <v>9.567791002542341</v>
+        <v>9.250106924116382</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>-0</v>
       </c>
       <c r="T7">
-        <v>-0.2553665990796288</v>
+        <v>-0.1261416864952045</v>
       </c>
       <c r="U7">
-        <v>0.2553665990796288</v>
+        <v>0.1261416864952045</v>
       </c>
       <c r="V7">
         <v>3.895791304347826</v>
@@ -1029,7 +1029,7 @@
         <v>100.4097194560142</v>
       </c>
       <c r="C8">
-        <v>67.89339234476857</v>
+        <v>59.50364771672215</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5988492956982622</v>
+        <v>0.5663100244587076</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5041165868609609</v>
+        <v>0.4905585571778133</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-3.976900946771821</v>
+        <v>-3.841873882095209</v>
       </c>
       <c r="T8">
         <v>-1.043694565217391</v>
       </c>
       <c r="U8">
-        <v>5.020595511989213</v>
+        <v>4.8855684473126</v>
       </c>
       <c r="V8">
         <v>5.07114347826087</v>
@@ -1100,7 +1100,7 @@
         <v>114.0987568381507</v>
       </c>
       <c r="C9">
-        <v>48.00888761090945</v>
+        <v>40.29427830624611</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6734816096908157</v>
+        <v>0.5986086333368864</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5661698157022558</v>
+        <v>0.5349727422214519</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-2.445910890025601</v>
+        <v>-2.172489212653103</v>
       </c>
       <c r="T9">
         <v>-2.516192391304348</v>
       </c>
       <c r="U9">
-        <v>4.962103281329949</v>
+        <v>4.688681603957451</v>
       </c>
       <c r="V9">
         <v>5.00535652173913</v>
@@ -1171,19 +1171,19 @@
         <v>94.86764298385783</v>
       </c>
       <c r="C10">
-        <v>35.77933316078145</v>
+        <v>29.43183224298059</v>
       </c>
       <c r="D10">
-        <v>9.834352995157307</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.4917176497578654</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>-0.778730772975735</v>
+        <v>0.363798810676457</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.376282691824642</v>
+        <v>0.3864525391861788</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01258171100832062</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>9.821771284148987</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1219,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-0</v>
+        <v>-0.09461866882263292</v>
       </c>
       <c r="T10">
-        <v>-3.966396549861245</v>
+        <v>-3.978978260869565</v>
       </c>
       <c r="U10">
-        <v>3.966396549861245</v>
+        <v>4.073596929692198</v>
       </c>
       <c r="V10">
         <v>4.951523913043479</v>
@@ -1242,28 +1242,28 @@
         <v>142.7665324873374</v>
       </c>
       <c r="C11">
-        <v>84.95109813656798</v>
+        <v>28.95873889886743</v>
       </c>
       <c r="D11">
-        <v>-1.405960267445442</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.07029801337227208</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1.106558922221778</v>
+        <v>0.8663435714398062</v>
       </c>
       <c r="H11">
-        <v>0.2007240721981552</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7550129743057288</v>
+        <v>0.7385582748958048</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1287,16 +1287,16 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>1.405960267445442</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>-0.2327157881002488</v>
+        <v>-0.1174597885095654</v>
       </c>
       <c r="T11">
         <v>-5.055729347826087</v>
       </c>
       <c r="U11">
-        <v>5.288445135926336</v>
+        <v>5.173189136335653</v>
       </c>
       <c r="V11">
         <v>5.2895</v>
@@ -1313,28 +1313,28 @@
         <v>130.3349085258269</v>
       </c>
       <c r="C12">
-        <v>76.75771785883953</v>
+        <v>28.37143995631961</v>
       </c>
       <c r="D12">
-        <v>-3.497680362337899</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.1748840181168949</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1.874149883376132</v>
+        <v>1.270930351465988</v>
       </c>
       <c r="H12">
-        <v>0.4558698500778912</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.182247476802328</v>
+        <v>1.120851776038889</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1358,16 +1358,16 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>3.497680362337899</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>-3.373898313135924</v>
+        <v>-2.902837248545752</v>
       </c>
       <c r="T12">
         <v>-5.69694456521739</v>
       </c>
       <c r="U12">
-        <v>9.070842878353314</v>
+        <v>8.599781813763142</v>
       </c>
       <c r="V12">
         <v>9.073508695652174</v>
@@ -1384,19 +1384,19 @@
         <v>94.46085730755678</v>
       </c>
       <c r="C13">
-        <v>42.39982448147042</v>
+        <v>13.85725371359085</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3.179747303621124</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.1589873651810562</v>
       </c>
       <c r="G13">
-        <v>0.8711414078066895</v>
+        <v>0.1547143376437266</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.727608664921886</v>
+        <v>0.574931971643393</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.09202207831960951</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>3.087725225301514</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-1.52427378888166</v>
+        <v>-0</v>
       </c>
       <c r="T13">
-        <v>-6.178479347826087</v>
+        <v>-6.086457269506478</v>
       </c>
       <c r="U13">
-        <v>7.702753136707748</v>
+        <v>6.086457269506478</v>
       </c>
       <c r="V13">
         <v>7.7203</v>
@@ -1455,7 +1455,7 @@
         <v>112.4862112330598</v>
       </c>
       <c r="C14">
-        <v>34.77845553706211</v>
+        <v>29.75599023169646</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.025277317450807</v>
+        <v>0.8703072060740624</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8571381768032299</v>
+        <v>0.7925672970629197</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-1.726495402600783</v>
+        <v>-1.152461669643717</v>
       </c>
       <c r="T14">
         <v>-5.893444565217392</v>
       </c>
       <c r="U14">
-        <v>7.619939967818175</v>
+        <v>7.045906234861109</v>
       </c>
       <c r="V14">
         <v>7.644302173913044</v>
@@ -1526,19 +1526,19 @@
         <v>83.37399895636226</v>
       </c>
       <c r="C15">
-        <v>26.1459785240582</v>
+        <v>23.99368188347787</v>
       </c>
       <c r="D15">
-        <v>8.925589371370165</v>
+        <v>5.953692090200208</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.4462794685685083</v>
+        <v>0.2976846045100104</v>
       </c>
       <c r="G15">
-        <v>-0.5671252573892026</v>
+        <v>-0.2639434009489573</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4448156644005792</v>
+        <v>0.4496882506154373</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1562,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09312966083299923</v>
+        <v>0.03468714547028551</v>
       </c>
       <c r="P15">
-        <v>8.832459710537165</v>
+        <v>5.919004944729923</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         <v>-0</v>
       </c>
       <c r="T15">
-        <v>-5.335184469601783</v>
+        <v>-5.393626984964497</v>
       </c>
       <c r="U15">
-        <v>5.335184469601783</v>
+        <v>5.393626984964497</v>
       </c>
       <c r="V15">
         <v>7.506395652173913</v>
@@ -1597,28 +1597,28 @@
         <v>127.6562977853368</v>
       </c>
       <c r="C16">
-        <v>70.77392538090903</v>
+        <v>53.76214233447891</v>
       </c>
       <c r="D16">
-        <v>-4.035962646435667</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.2017981323217834</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1.483821632422727</v>
+        <v>0.9349593665407592</v>
       </c>
       <c r="H16">
-        <v>0.5152160494438875</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8106629997946692</v>
+        <v>0.7966437429454691</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1642,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>4.035962646435667</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-1.739302147376813</v>
+        <v>-1.629481816594744</v>
       </c>
       <c r="T16">
         <v>-4.611054347826087</v>
       </c>
       <c r="U16">
-        <v>6.350356495202901</v>
+        <v>6.240536164420831</v>
       </c>
       <c r="V16">
         <v>6.377708695652173</v>
@@ -1668,19 +1668,19 @@
         <v>77.33234842569557</v>
       </c>
       <c r="C17">
-        <v>41.89760141184663</v>
+        <v>45.61473325150519</v>
       </c>
       <c r="D17">
-        <v>9.620479717630674</v>
+        <v>8.877053349698961</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.4810239858815337</v>
+        <v>0.4438526674849481</v>
       </c>
       <c r="G17">
-        <v>-0.7486597894289994</v>
+        <v>-0.6922379256124286</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2552937981483106</v>
+        <v>0.2448211110817083</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03924504854060551</v>
+        <v>0.1746694508741902</v>
       </c>
       <c r="P17">
-        <v>9.581234669090069</v>
+        <v>8.70238389882477</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1719,10 +1719,10 @@
         <v>-0</v>
       </c>
       <c r="T17">
-        <v>-3.301254951459395</v>
+        <v>-3.16583054912581</v>
       </c>
       <c r="U17">
-        <v>3.301254951459395</v>
+        <v>3.16583054912581</v>
       </c>
       <c r="V17">
         <v>5.088832608695652</v>
@@ -1739,28 +1739,28 @@
         <v>139.8086256272565</v>
       </c>
       <c r="C18">
-        <v>90</v>
+        <v>89.99999999999999</v>
       </c>
       <c r="D18">
-        <v>-4.195753223810646</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.2097876611905323</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1.404377566101643</v>
+        <v>0.8025184664267635</v>
       </c>
       <c r="H18">
-        <v>0.5866024916920972</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6819361826129388</v>
+        <v>0.6755792626201127</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -1784,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>4.195753223810646</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>-2.902066358101504</v>
+        <v>-2.856597632804294</v>
       </c>
       <c r="T18">
         <v>-1.975573913043479</v>
       </c>
       <c r="U18">
-        <v>4.877640271144982</v>
+        <v>4.832171545847773</v>
       </c>
       <c r="V18">
         <v>4.880908695652174</v>
@@ -1810,19 +1810,19 @@
         <v>94.82122737106674</v>
       </c>
       <c r="C19">
-        <v>54.51090209043925</v>
+        <v>75.71701183597852</v>
       </c>
       <c r="D19">
-        <v>7.09781958191215</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.3548909790956075</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>-1.327819546237041</v>
+        <v>-0.289087493847894</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06502162119749288</v>
+        <v>0.1617161951738524</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.008469292506159909</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>7.08935028940599</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-0</v>
+        <v>-1.011287323783584</v>
       </c>
       <c r="T19">
-        <v>-0.6857285335807967</v>
+        <v>-0.6941978260869566</v>
       </c>
       <c r="U19">
-        <v>0.6857285335807967</v>
+        <v>1.70548514987054</v>
       </c>
       <c r="V19">
         <v>5.951606521739131</v>
@@ -1881,7 +1881,7 @@
         <v>115.3177193050301</v>
       </c>
       <c r="C20">
-        <v>90</v>
+        <v>70.66057521706061</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.2614668069959019</v>
+        <v>0.02281875781261433</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4758951373352895</v>
+        <v>0.3764584501755863</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-3.962275807569605</v>
+        <v>-3.09999126223724</v>
       </c>
       <c r="T20">
         <v>-0.1645413043478261</v>
       </c>
       <c r="U20">
-        <v>4.126817111917431</v>
+        <v>3.264532566585066</v>
       </c>
       <c r="V20">
         <v>6.364167391304347</v>
@@ -1952,7 +1952,7 @@
         <v>104.9907459496491</v>
       </c>
       <c r="C21">
-        <v>70.18862096215197</v>
+        <v>55.1606189058744</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.1535188108433238</v>
+        <v>-0.5396750554906131</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2488674508173851</v>
+        <v>0.08796901554768123</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -2000,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-2.370375108457041</v>
+        <v>-0.8378739931028676</v>
       </c>
       <c r="T21">
         <v>-0</v>
       </c>
       <c r="U21">
-        <v>2.370375108457041</v>
+        <v>0.8378739931028676</v>
       </c>
       <c r="V21">
         <v>5.959260869565217</v>
@@ -2023,7 +2023,7 @@
         <v>96.24046538329668</v>
       </c>
       <c r="C22">
-        <v>58.33674541986677</v>
+        <v>50.97124894036007</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.6760139027306077</v>
+        <v>-0.3591189550320926</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.001974867359872087</v>
+        <v>0.1340144289009201</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>-0.02052013518437164</v>
+        <v>-1.392495644811994</v>
       </c>
       <c r="T22">
         <v>-0</v>
       </c>
       <c r="U22">
-        <v>0.02052013518437164</v>
+        <v>1.392495644811994</v>
       </c>
       <c r="V22">
         <v>5.894554347826086</v>
@@ -2094,7 +2094,7 @@
         <v>129.2453153423419</v>
       </c>
       <c r="C23">
-        <v>58.2341447439449</v>
+        <v>44.0087707163001</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.3707669138026661</v>
+        <v>0.1321707444303903</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.506067890405026</v>
+        <v>0.4066528198332444</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2142,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>-3.915560800517725</v>
+        <v>-3.146364096494424</v>
       </c>
       <c r="T23">
         <v>-0</v>
       </c>
       <c r="U23">
-        <v>3.915560800517725</v>
+        <v>3.146364096494424</v>
       </c>
       <c r="V23">
         <v>5.440532608695652</v>
@@ -2165,28 +2165,28 @@
         <v>134.6209201425763</v>
       </c>
       <c r="C24">
-        <v>38.65634074135628</v>
+        <v>28.27695023382798</v>
       </c>
       <c r="D24">
-        <v>-0.02871318452813743</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.001435659226406871</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4940285588741621</v>
+        <v>0.413582425343006</v>
       </c>
       <c r="H24">
-        <v>0.003865395321401446</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.498441356097562</v>
+        <v>0.4665327151768308</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0.02871318452813743</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>-3.702554963743119</v>
+        <v>-3.46552909222971</v>
       </c>
       <c r="T24">
         <v>-0</v>
       </c>
       <c r="U24">
-        <v>3.702554963743119</v>
+        <v>3.46552909222971</v>
       </c>
       <c r="V24">
         <v>4.370891304347826</v>
@@ -2236,7 +2236,7 @@
         <v>105.9716222151143</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>10.94930477267943</v>
       </c>
       <c r="D25">
         <v>0</v>
